--- a/Excel/04.Assignment 04/Find-the-Position-of-Word.xlsx
+++ b/Excel/04.Assignment 04/Find-the-Position-of-Word.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vijay\Misc\Learning\Excel\Blog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amano\Documents\iNeuron-Assignments\Excel\04.Assignment 04\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFDFF0F-7DE2-49D8-A18F-1FECC8E06A77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7080" xr2:uid="{A547D54C-FC71-499A-A7FB-20631F0F8484}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -410,41 +411,41 @@
   <dimension ref="A2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
